--- a/dataset/MMLU_fa/mmlu-college_medicine_fa.xlsx
+++ b/dataset/MMLU_fa/mmlu-college_medicine_fa.xlsx
@@ -3582,123 +3582,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">دقیقه – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GCATCCTCATG – 3’</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5' – TGATCCCAG – 3’</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">دقیقه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- GGTCCTCATC - 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">دقیقه</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">دقیقه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- GGATCCATG - 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">دقیقه</t>
-    </r>
+    <t xml:space="preserve">5’ – GCATCCTCATG – 3’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5’ – TGATCCCAG – 3’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5’ – GGTCCTCATC – 3’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5’ – GGATCCATG – 3’</t>
   </si>
   <si>
     <r>
@@ -19675,6 +19568,7 @@
         <color theme="1"/>
         <rFont val="Noto Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">متر بر ثانیه</t>
     </r>
@@ -20814,7 +20708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20854,8 +20748,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -20907,7 +20807,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -20929,6 +20829,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21126,8 +21034,8 @@
   </sheetPr>
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A174" activeCellId="0" sqref="A174"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21734,16 +21642,16 @@
       <c r="A27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F27" s="3" t="n">
@@ -23041,7 +22949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="1326.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="1311.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>413</v>
       </c>
@@ -23179,7 +23087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="1196.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>441</v>
       </c>
@@ -23271,7 +23179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="669.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>461</v>
       </c>
@@ -23823,7 +23731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="740.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
         <v>577</v>
       </c>
@@ -24030,7 +23938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="758.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>619</v>
       </c>
@@ -24398,7 +24306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="867.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>690</v>
       </c>
@@ -24651,7 +24559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>741</v>
       </c>
@@ -24927,7 +24835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="541" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>794</v>
       </c>
